--- a/doc/开拓足球项目接口文档.xlsx
+++ b/doc/开拓足球项目接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28110" windowHeight="13050"/>
+    <workbookView windowWidth="28110" windowHeight="13050" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="忘记密码" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,19 @@
     <sheet name="删除字典值" sheetId="5" r:id="rId5"/>
     <sheet name="新增字典值" sheetId="6" r:id="rId6"/>
     <sheet name="修改字典值" sheetId="7" r:id="rId7"/>
+    <sheet name="新增学院下部门" sheetId="8" r:id="rId8"/>
+    <sheet name="新增区域下部门" sheetId="9" r:id="rId9"/>
+    <sheet name="查询所有部门" sheetId="10" r:id="rId10"/>
+    <sheet name="根据条件查询部门" sheetId="11" r:id="rId11"/>
+    <sheet name="删除部门" sheetId="12" r:id="rId12"/>
+    <sheet name="修改部门" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="66">
   <si>
     <t>请求报文</t>
   </si>
@@ -245,6 +251,114 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>{
+ "deptId":"XXBM01",
+ "deptName":"安保部",
+ "collegeNum":"XX000"
+}</t>
+  </si>
+  <si>
+    <t>addDeptByCollege</t>
+  </si>
+  <si>
+    <t>deptId</t>
+  </si>
+  <si>
+    <t>部门编号（必传）</t>
+  </si>
+  <si>
+    <t>deptName</t>
+  </si>
+  <si>
+    <t>部门名称（必传）</t>
+  </si>
+  <si>
+    <t>collegeNum</t>
+  </si>
+  <si>
+    <t>学院编号（必传）</t>
+  </si>
+  <si>
+    <t>{
+ "deptId":"XCBM01",
+ "deptName":"后勤部",
+ "aereNum":"XC000"
+}</t>
+  </si>
+  <si>
+    <t>aereNum</t>
+  </si>
+  <si>
+    <t>区域编号（必传）</t>
+  </si>
+  <si>
+    <t>selectDeptAll</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 1,
+        "deptId": "XXBM01",
+        "deptName": "安保部",
+        "collegeNum": "XX000",
+        "aereNum": null,
+        "statusCd": 0
+    },
+    {
+        "id": 2,
+        "deptId": "XCBM01",
+        "deptName": "后勤部",
+        "collegeNum": null,
+        "aereNum": "XC000",
+        "statusCd": 0
+    }
+]</t>
+  </si>
+  <si>
+    <t>{
+        "id": 1,
+        "deptId": "XXBM01"
+}</t>
+  </si>
+  <si>
+    <t>selectDept</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>选传</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 1,
+        "deptId": "XXBM01",
+        "deptName": "安保部",
+        "collegeNum": "XX000",
+        "aereNum": null,
+        "statusCd": 0
+    }
+]</t>
+  </si>
+  <si>
+    <t>{
+        "id": 2
+}</t>
+  </si>
+  <si>
+    <t>deleteDept</t>
+  </si>
+  <si>
+    <t>{
+        "id": 1,
+        "deptId": "XXBM09"
+}</t>
+  </si>
+  <si>
+    <t>updateDept</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1325,7 @@
   <sheetPr/>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -1518,6 +1632,1625 @@
   <mergeCells count="2">
     <mergeCell ref="B1:J12"/>
     <mergeCell ref="B15:J25"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="13" max="13" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:J16"/>
+    <mergeCell ref="B18:J32"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="12" max="12" width="11.25" customWidth="1"/>
+    <col min="13" max="13" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:J16"/>
+    <mergeCell ref="B18:J32"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="L2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:J16"/>
+    <mergeCell ref="B18:J32"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="L2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:J16"/>
+    <mergeCell ref="B18:J32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2866,16 +4599,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
       <c r="K1" t="s">
         <v>2</v>
       </c>
@@ -2884,14 +4617,14 @@
       </c>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
       <c r="K2" t="s">
         <v>33</v>
       </c>
@@ -2903,14 +4636,14 @@
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
       <c r="K3" t="s">
         <v>35</v>
       </c>
@@ -2922,14 +4655,14 @@
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
       <c r="K4" t="s">
         <v>37</v>
       </c>
@@ -2941,229 +4674,229 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3194,8 +4927,394 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="L2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="M3" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:J15"/>
+    <mergeCell ref="B17:J31"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="12" max="12" width="10.75" customWidth="1"/>
+    <col min="13" max="13" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3209,10 +5328,10 @@
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3222,14 +5341,11 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="L2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>17</v>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -3242,11 +5358,14 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="M3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3256,6 +5375,12 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="2"/>
@@ -3301,7 +5426,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:10">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -3311,9 +5436,6 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="N9" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="2"/>
@@ -3381,24 +5503,24 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
+    <row r="16" spans="2:10">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -3551,10 +5673,421 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:J15"/>
-    <mergeCell ref="B17:J31"/>
+    <mergeCell ref="B1:J16"/>
+    <mergeCell ref="B18:J32"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:J16"/>
+    <mergeCell ref="B18:J32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/doc/开拓足球项目接口文档.xlsx
+++ b/doc/开拓足球项目接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28110" windowHeight="13050" firstSheet="4" activeTab="11"/>
+    <workbookView windowWidth="22368" windowHeight="10007" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="忘记密码" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,18 @@
     <sheet name="根据条件查询部门" sheetId="11" r:id="rId11"/>
     <sheet name="删除部门" sheetId="12" r:id="rId12"/>
     <sheet name="修改部门" sheetId="13" r:id="rId13"/>
+    <sheet name="查询所有区域" sheetId="14" r:id="rId14"/>
+    <sheet name="根据条件查询区域" sheetId="15" r:id="rId15"/>
+    <sheet name="新增区域" sheetId="16" r:id="rId16"/>
+    <sheet name="修改区域" sheetId="17" r:id="rId17"/>
+    <sheet name="删除区域" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="86">
   <si>
     <t>请求报文</t>
   </si>
@@ -360,16 +365,104 @@
   <si>
     <t>updateDept</t>
   </si>
+  <si>
+    <t>selectAereAll</t>
+  </si>
+  <si>
+    <t>显示字段</t>
+  </si>
+  <si>
+    <t>区域编号</t>
+  </si>
+  <si>
+    <t>aereName</t>
+  </si>
+  <si>
+    <t>区域名称</t>
+  </si>
+  <si>
+    <t>负责人id</t>
+  </si>
+  <si>
+    <t>负责人名称</t>
+  </si>
+  <si>
+    <t>permissions</t>
+  </si>
+  <si>
+    <t>权限</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 1,
+        "aereNum": "XCXY000",
+        "aereName": "西昌学院",
+        "userId": 1,
+        "userName": "黄弋峰",
+        "permissions": 1,
+        "tel": "18781166142",
+        "address": "四川省凉山彝族自治州西昌市",
+        "createTime": "2022-12-02T02:06:20.000+00:00",
+        "statusCd": "0"
+    }
+]</t>
+  </si>
+  <si>
+    <t>{
+ "id":1
+}</t>
+  </si>
+  <si>
+    <t>selectAere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+        "aereNum": "CHSL001",
+        "aereName": "成都",
+        "userId": 1,
+        "userName": "黄弋峰",
+        "permissions": 1,
+        "tel": "18781166142",
+        "address": "四川省成都市双流区"
+}</t>
+  </si>
+  <si>
+    <t>addAere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+        "id":2,
+        "aereNum": "CH001"
+}</t>
+  </si>
+  <si>
+    <t>updateAere</t>
+  </si>
+  <si>
+    <t>deleteAere</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -386,7 +479,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,15 +522,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,14 +550,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,9 +592,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,29 +616,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,7 +631,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,13 +679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,7 +703,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,13 +769,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,13 +787,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,79 +799,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,19 +811,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,6 +822,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -743,6 +862,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,21 +908,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -809,26 +922,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -837,10 +930,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -849,133 +942,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1329,10 +1422,10 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="16.225" customWidth="1"/>
+    <col min="13" max="13" width="16.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1647,25 +1740,25 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="12" max="12" width="10.375" customWidth="1"/>
-    <col min="13" max="13" width="14.625" customWidth="1"/>
+    <col min="12" max="12" width="10.3796296296296" customWidth="1"/>
+    <col min="13" max="13" width="14.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
       <c r="L1" t="s">
         <v>2</v>
       </c>
@@ -1674,342 +1767,342 @@
       </c>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
       <c r="L2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2030,398 +2123,398 @@
       <selection activeCell="L3" sqref="L3:M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="12" max="12" width="11.25" customWidth="1"/>
-    <col min="13" max="13" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="16.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
       <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
       <c r="L2" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="L3" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
       <c r="L4" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
       <c r="L5" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
       <c r="L6" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2438,13 +2531,13 @@
   <sheetPr/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="10.6296296296296" customWidth="1"/>
     <col min="13" max="13" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2452,388 +2545,388 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
       <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="L2" s="3" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="L2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="L3" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
       <c r="L4" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
       <c r="L5" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
       <c r="L6" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2854,7 +2947,7 @@
       <selection activeCell="L2" sqref="L2:M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="12" max="12" width="11" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
@@ -2864,8 +2957,815 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="L2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:J16"/>
+    <mergeCell ref="B18:J32"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="12" max="12" width="11.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="16.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="L7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="L9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="N2:N9"/>
+    <mergeCell ref="B1:J14"/>
+    <mergeCell ref="B16:J28"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="12" max="12" width="12.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="16.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2878,8 +3778,398 @@
       <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>65</v>
+      <c r="M1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="L2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="L3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="L6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="L8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="N2:N8"/>
+    <mergeCell ref="B1:J14"/>
+    <mergeCell ref="B16:J28"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="12" max="12" width="10.8888888888889" customWidth="1"/>
+    <col min="13" max="13" width="11.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="2:13">
@@ -2892,11 +4182,11 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="L2" s="3" t="s">
-        <v>59</v>
+      <c r="L2" t="s">
+        <v>53</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -2910,11 +4200,9 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="L3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="2"/>
@@ -2927,11 +4215,9 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="L4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="2"/>
@@ -2944,11 +4230,9 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="L5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="2"/>
@@ -2961,11 +4245,9 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="L6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="2"/>
@@ -3055,19 +4337,13 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="2"/>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -3077,13 +4353,19 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>30</v>
-      </c>
+    <row r="17" spans="2:10">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -3203,54 +4485,698 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="M2:M6"/>
+    <mergeCell ref="B1:J14"/>
+    <mergeCell ref="B16:J28"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="12" max="12" width="10.8888888888889" customWidth="1"/>
+    <col min="13" max="13" width="15.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:J16"/>
-    <mergeCell ref="B18:J32"/>
+    <mergeCell ref="B1:J14"/>
+    <mergeCell ref="B16:J28"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="12" max="12" width="11.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:J14"/>
+    <mergeCell ref="B16:J28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3266,7 +5192,7 @@
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="12" max="12" width="10" customWidth="1"/>
   </cols>
@@ -3560,9 +5486,9 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="12" max="12" width="13.1083333333333" customWidth="1"/>
+    <col min="12" max="12" width="13.1111111111111" customWidth="1"/>
     <col min="13" max="13" width="23" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3899,10 +5825,10 @@
       <selection activeCell="A1" sqref="A1:J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="12" max="12" width="10.8916666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.1083333333333" customWidth="1"/>
+    <col min="12" max="12" width="10.8888888888889" customWidth="1"/>
+    <col min="13" max="13" width="17.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -4242,7 +6168,7 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="12" max="12" width="11.25" customWidth="1"/>
     <col min="13" max="13" width="17.5" customWidth="1"/>
@@ -4589,10 +6515,10 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="11" max="11" width="10.875" customWidth="1"/>
-    <col min="12" max="12" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="10.8796296296296" customWidth="1"/>
+    <col min="12" max="12" width="14.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4917,7 +6843,7 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="12" max="12" width="10.25" customWidth="1"/>
     <col min="13" max="13" width="17.75" customWidth="1"/>
@@ -5303,44 +7229,44 @@
       <selection activeCell="L1" sqref="L1:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="12" max="12" width="10.75" customWidth="1"/>
-    <col min="13" max="13" width="19.125" customWidth="1"/>
+    <col min="13" max="13" width="19.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
       <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
       <c r="L2" t="s">
         <v>46</v>
       </c>
@@ -5349,15 +7275,15 @@
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="L3" t="s">
         <v>48</v>
       </c>
@@ -5366,15 +7292,15 @@
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
       <c r="L4" t="s">
         <v>50</v>
       </c>
@@ -5383,306 +7309,306 @@
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5703,44 +7629,44 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="12" max="12" width="12.125" customWidth="1"/>
-    <col min="13" max="13" width="16.875" customWidth="1"/>
+    <col min="12" max="12" width="12.1296296296296" customWidth="1"/>
+    <col min="13" max="13" width="16.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
       <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
       <c r="L2" t="s">
         <v>46</v>
       </c>
@@ -5749,15 +7675,15 @@
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="L3" t="s">
         <v>48</v>
       </c>
@@ -5766,15 +7692,15 @@
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
       <c r="L4" t="s">
         <v>53</v>
       </c>
@@ -5783,306 +7709,306 @@
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/doc/开拓足球项目接口文档.xlsx
+++ b/doc/开拓足球项目接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="10007" firstSheet="11" activeTab="17"/>
+    <workbookView windowWidth="22368" windowHeight="10007" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="忘记密码" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,30 @@
         "msg": "成功",
         "code": "000000"
     },
-    "body": "登录成功！！"
+    "body": {
+        "user": {
+            "userId": 1,
+            "userName": "黄弋峰",
+            "age": 22,
+            "tel": "18781166142",
+            "sex": 2,
+            "account": "18781166142",
+            "password": null,
+            "permissions": 1,
+            "collegeNum": "XX000",
+            "collegeName": "信息技术学院",
+            "aereNum": null,
+            "aereName": null,
+            "address": "四川省绵阳市",
+            "statusCd": 0,
+            "createTime": "2022-11-17T11:27:00.000+00:00",
+            "updateTime": "2022-12-05T11:01:55.000+00:00",
+            "pswErrNum": 0,
+            "passwordRept": null,
+            "umark": "已退役",
+            "email": "1648114703@qq.com"
+        }
+    }
 }</t>
   </si>
   <si>
@@ -459,8 +482,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -479,20 +502,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -516,7 +538,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,41 +590,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -592,31 +637,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,7 +654,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,43 +726,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,31 +768,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,91 +828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,13 +848,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,21 +874,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,6 +898,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,10 +953,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -942,148 +965,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1432,17 +1446,17 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
       <c r="L1" t="s">
         <v>2</v>
       </c>
@@ -1451,15 +1465,15 @@
       </c>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="L2" t="s">
         <v>4</v>
       </c>
@@ -1468,15 +1482,15 @@
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="L3" t="s">
         <v>6</v>
       </c>
@@ -1485,16 +1499,16 @@
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="L4" s="7" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="L4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M4" t="s">
@@ -1502,15 +1516,15 @@
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
       <c r="L5" t="s">
         <v>10</v>
       </c>
@@ -1519,207 +1533,207 @@
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1750,15 +1764,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
       <c r="L1" t="s">
         <v>2</v>
       </c>
@@ -1767,342 +1781,342 @@
       </c>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
       <c r="L2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2133,388 +2147,388 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
       <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="L2" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="L3" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
       <c r="L4" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
       <c r="L5" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
       <c r="L6" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2545,388 +2559,388 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
       <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="L2" s="6" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="L2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="L3" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
       <c r="L4" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
       <c r="L5" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
       <c r="L6" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2957,388 +2971,388 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
       <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="L2" s="6" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="L2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="L3" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
       <c r="L4" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
       <c r="L5" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
       <c r="L6" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4845,7 +4859,7 @@
   <sheetPr/>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -5188,8 +5202,8 @@
   <sheetPr/>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -5201,17 +5215,17 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
       <c r="L1" t="s">
         <v>2</v>
       </c>
@@ -5220,15 +5234,15 @@
       </c>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="L2" t="s">
         <v>16</v>
       </c>
@@ -5237,15 +5251,15 @@
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="L3" t="s">
         <v>4</v>
       </c>
@@ -5254,218 +5268,218 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5496,15 +5510,15 @@
       <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
       <c r="L1" t="s">
         <v>2</v>
       </c>
@@ -5513,298 +5527,298 @@
       </c>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
       <c r="L2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5835,15 +5849,15 @@
       <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
       <c r="L1" t="s">
         <v>2</v>
       </c>
@@ -5852,15 +5866,15 @@
       </c>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
       <c r="L2" t="s">
         <v>24</v>
       </c>
@@ -5869,285 +5883,285 @@
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="M3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6178,17 +6192,17 @@
       <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
       <c r="L1" t="s">
         <v>2</v>
       </c>
@@ -6197,15 +6211,15 @@
       </c>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="L2" t="s">
         <v>24</v>
       </c>
@@ -6214,287 +6228,287 @@
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="M3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6525,16 +6539,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
       <c r="K1" t="s">
         <v>2</v>
       </c>
@@ -6543,14 +6557,14 @@
       </c>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
       <c r="K2" t="s">
         <v>33</v>
       </c>
@@ -6562,14 +6576,14 @@
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
       <c r="K3" t="s">
         <v>35</v>
       </c>
@@ -6581,14 +6595,14 @@
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
       <c r="K4" t="s">
         <v>37</v>
       </c>
@@ -6600,229 +6614,229 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6853,362 +6867,362 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
       <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="2:14">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="L2" s="6" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="L2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="M3" s="6" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="M3" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
       <c r="N9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7239,34 +7253,34 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
       <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="L2" t="s">
         <v>46</v>
       </c>
@@ -7275,15 +7289,15 @@
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="L3" t="s">
         <v>48</v>
       </c>
@@ -7292,15 +7306,15 @@
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
       <c r="L4" t="s">
         <v>50</v>
       </c>
@@ -7309,306 +7323,306 @@
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7639,34 +7653,34 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
       <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="L2" t="s">
         <v>46</v>
       </c>
@@ -7675,15 +7689,15 @@
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="L3" t="s">
         <v>48</v>
       </c>
@@ -7692,15 +7706,15 @@
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
       <c r="L4" t="s">
         <v>53</v>
       </c>
@@ -7709,306 +7723,306 @@
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
